--- a/Data/chloride_field.xlsx
+++ b/Data/chloride_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEF0548-B281-4F06-8169-E2E3017DDFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE888907-78D6-4383-89D2-1EC1D4F95E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YS" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="DC" sheetId="6" r:id="rId6"/>
     <sheet name="PBMS" sheetId="7" r:id="rId7"/>
     <sheet name="PBSF" sheetId="8" r:id="rId8"/>
+    <sheet name="MO" sheetId="9" r:id="rId9"/>
+    <sheet name="ME" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
   <si>
     <t>datetime</t>
   </si>
@@ -39,6 +41,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>depth</t>
   </si>
 </sst>
 </file>
@@ -890,14 +895,14 @@
       <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43816.686111111114</v>
       </c>
@@ -919,7 +924,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.506249999999</v>
       </c>
@@ -930,7 +935,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.398611111108</v>
       </c>
@@ -941,7 +946,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.568749999999</v>
       </c>
@@ -952,7 +957,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.579861111109</v>
       </c>
@@ -963,7 +968,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.577777777777</v>
       </c>
@@ -974,7 +979,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.581250000003</v>
       </c>
@@ -985,7 +990,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.57708333333</v>
       </c>
@@ -996,7 +1001,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.59375</v>
       </c>
@@ -1007,7 +1012,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.573611111111</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.57916666667</v>
       </c>
@@ -1029,7 +1034,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.531944444447</v>
       </c>
@@ -1040,7 +1045,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.357638888891</v>
       </c>
@@ -1054,6 +1059,58 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBB4225-BD5C-4F92-B99E-70B600E4FC70}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1065,14 +1122,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43816.667361111111</v>
       </c>
@@ -1094,7 +1151,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.530555555553</v>
       </c>
@@ -1105,7 +1162,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.416666666664</v>
       </c>
@@ -1116,7 +1173,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.586805555555</v>
       </c>
@@ -1127,7 +1184,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.604166666664</v>
       </c>
@@ -1138,7 +1195,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.595138888886</v>
       </c>
@@ -1149,7 +1206,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.592361111114</v>
       </c>
@@ -1160,7 +1217,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.594444444447</v>
       </c>
@@ -1171,7 +1228,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.602777777778</v>
       </c>
@@ -1182,7 +1239,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.590277777781</v>
       </c>
@@ -1193,7 +1250,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.604166666664</v>
       </c>
@@ -1204,7 +1261,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.548611111109</v>
       </c>
@@ -1215,7 +1272,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.37777777778</v>
       </c>
@@ -1239,14 +1296,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43816.652777777781</v>
       </c>
@@ -1268,7 +1325,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.57708333333</v>
       </c>
@@ -1279,7 +1336,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.431250000001</v>
       </c>
@@ -1290,7 +1347,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.601388888892</v>
       </c>
@@ -1301,7 +1358,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.620833333334</v>
       </c>
@@ -1312,7 +1369,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.609722222223</v>
       </c>
@@ -1323,7 +1380,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.60833333333</v>
       </c>
@@ -1334,7 +1391,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.60833333333</v>
       </c>
@@ -1345,7 +1402,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.617361111108</v>
       </c>
@@ -1356,7 +1413,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.605555555558</v>
       </c>
@@ -1367,7 +1424,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.617361111108</v>
       </c>
@@ -1378,7 +1435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.5625</v>
       </c>
@@ -1389,7 +1446,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.392361111109</v>
       </c>
@@ -1413,14 +1470,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.638888888891</v>
       </c>
@@ -1442,7 +1499,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.6</v>
       </c>
@@ -1453,7 +1510,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.447916666664</v>
       </c>
@@ -1464,7 +1521,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.619444444441</v>
       </c>
@@ -1475,7 +1532,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.636805555558</v>
       </c>
@@ -1486,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.625</v>
       </c>
@@ -1497,7 +1554,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.629166666666</v>
       </c>
@@ -1508,7 +1565,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.62222222222</v>
       </c>
@@ -1519,7 +1576,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.630555555559</v>
       </c>
@@ -1530,7 +1587,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.617361111108</v>
       </c>
@@ -1541,7 +1598,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.631249999999</v>
       </c>
@@ -1552,7 +1609,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.575694444444</v>
       </c>
@@ -1563,7 +1620,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.408333333333</v>
       </c>
@@ -1587,14 +1644,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1605,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.631249999999</v>
       </c>
@@ -1616,7 +1673,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.619444444441</v>
       </c>
@@ -1627,7 +1684,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.461805555555</v>
       </c>
@@ -1638,7 +1695,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.629166666666</v>
       </c>
@@ -1649,7 +1706,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.649305555555</v>
       </c>
@@ -1660,7 +1717,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.634722222225</v>
       </c>
@@ -1671,7 +1728,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.643055555556</v>
       </c>
@@ -1682,7 +1739,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.629861111112</v>
       </c>
@@ -1693,7 +1750,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.640972222223</v>
       </c>
@@ -1704,7 +1761,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.625694444447</v>
       </c>
@@ -1715,7 +1772,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.640972222223</v>
       </c>
@@ -1726,7 +1783,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.585416666669</v>
       </c>
@@ -1737,7 +1794,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.418055555558</v>
       </c>
@@ -1761,14 +1818,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.62222222222</v>
       </c>
@@ -1790,7 +1847,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.627083333333</v>
       </c>
@@ -1801,7 +1858,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.469444444447</v>
       </c>
@@ -1812,7 +1869,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.638194444444</v>
       </c>
@@ -1823,7 +1880,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.659722222219</v>
       </c>
@@ -1834,7 +1891,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.643055555556</v>
       </c>
@@ -1845,7 +1902,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.655555555553</v>
       </c>
@@ -1856,7 +1913,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.634722222225</v>
       </c>
@@ -1867,7 +1924,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.646527777775</v>
       </c>
@@ -1878,7 +1935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.631944444445</v>
       </c>
@@ -1889,7 +1946,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.652777777781</v>
       </c>
@@ -1900,7 +1957,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.592361111114</v>
       </c>
@@ -1911,7 +1968,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.429166666669</v>
       </c>
@@ -1935,14 +1992,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1953,7 +2010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.609722222223</v>
       </c>
@@ -1964,7 +2021,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.63958333333</v>
       </c>
@@ -1975,7 +2032,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.481944444444</v>
       </c>
@@ -1986,7 +2043,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.651388888888</v>
       </c>
@@ -1997,7 +2054,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.675000000003</v>
       </c>
@@ -2008,7 +2065,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.654861111114</v>
       </c>
@@ -2019,7 +2076,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.670138888891</v>
       </c>
@@ -2030,7 +2087,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.647916666669</v>
       </c>
@@ -2041,7 +2098,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.660416666666</v>
       </c>
@@ -2052,7 +2109,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.644444444442</v>
       </c>
@@ -2063,7 +2120,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.67291666667</v>
       </c>
@@ -2074,7 +2131,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.605555555558</v>
       </c>
@@ -2085,7 +2142,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.444444444445</v>
       </c>
@@ -2105,18 +2162,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +2182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43818.599305555559</v>
       </c>
@@ -2138,7 +2193,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43830.648611111108</v>
       </c>
@@ -2149,7 +2204,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43836.490277777775</v>
       </c>
@@ -2160,7 +2215,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43844.659722222219</v>
       </c>
@@ -2171,7 +2226,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43851.68472222222</v>
       </c>
@@ -2182,7 +2237,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43858.661805555559</v>
       </c>
@@ -2193,7 +2248,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43865.677777777775</v>
       </c>
@@ -2204,7 +2259,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43872.654861111114</v>
       </c>
@@ -2215,7 +2270,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43879.668749999997</v>
       </c>
@@ -2226,7 +2281,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886.650694444441</v>
       </c>
@@ -2237,7 +2292,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43893.679166666669</v>
       </c>
@@ -2248,7 +2303,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43900.617361111108</v>
       </c>
@@ -2259,7 +2314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43906.453472222223</v>
       </c>
@@ -2273,4 +2328,123 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5520A0B-2863-440F-B808-95ED3523429B}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K31:K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43988.668055555558</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>37.58</v>
+      </c>
+      <c r="D2">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43988.672222222223</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>26.16</v>
+      </c>
+      <c r="D3">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43988.676388888889</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>25.96</v>
+      </c>
+      <c r="D4">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43988.679861111108</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>31.9</v>
+      </c>
+      <c r="D5">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43988.681250000001</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>56.9</v>
+      </c>
+      <c r="D6">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43988.681944444441</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>50.9</v>
+      </c>
+      <c r="D7">
+        <v>24.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/chloride_field.xlsx
+++ b/Data/chloride_field.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE888907-78D6-4383-89D2-1EC1D4F95E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D25FDC5-FD69-491F-B6AD-6B7228AAC783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="YS" sheetId="1" r:id="rId1"/>
-    <sheet name="SW" sheetId="2" r:id="rId2"/>
-    <sheet name="YI" sheetId="3" r:id="rId3"/>
-    <sheet name="YN" sheetId="4" r:id="rId4"/>
-    <sheet name="6MC" sheetId="5" r:id="rId5"/>
-    <sheet name="DC" sheetId="6" r:id="rId6"/>
-    <sheet name="PBMS" sheetId="7" r:id="rId7"/>
-    <sheet name="PBSF" sheetId="8" r:id="rId8"/>
-    <sheet name="MO" sheetId="9" r:id="rId9"/>
-    <sheet name="ME" sheetId="10" r:id="rId10"/>
+    <sheet name="WIC" sheetId="11" r:id="rId1"/>
+    <sheet name="YS" sheetId="1" r:id="rId2"/>
+    <sheet name="SW" sheetId="2" r:id="rId3"/>
+    <sheet name="YI" sheetId="3" r:id="rId4"/>
+    <sheet name="YN" sheetId="4" r:id="rId5"/>
+    <sheet name="6MC" sheetId="5" r:id="rId6"/>
+    <sheet name="DC" sheetId="6" r:id="rId7"/>
+    <sheet name="PBMS" sheetId="7" r:id="rId8"/>
+    <sheet name="PBSF" sheetId="8" r:id="rId9"/>
+    <sheet name="MO" sheetId="9" r:id="rId10"/>
+    <sheet name="ME" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
   <si>
     <t>datetime</t>
   </si>
@@ -888,21 +889,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170511C4-9B95-4BE9-8C35-7117D40D32CB}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,156 +914,142 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43816.686111111114</v>
+        <v>44026.462500000001</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>48.02</v>
       </c>
       <c r="C2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43830.506249999999</v>
-      </c>
-      <c r="B3">
-        <v>100.8</v>
-      </c>
-      <c r="C3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43836.398611111108</v>
-      </c>
-      <c r="B4">
-        <v>73.180000000000007</v>
-      </c>
-      <c r="C4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43844.568749999999</v>
-      </c>
-      <c r="B5">
-        <v>51.25</v>
-      </c>
-      <c r="C5">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43851.579861111109</v>
-      </c>
-      <c r="B6">
-        <v>50.05</v>
-      </c>
-      <c r="C6">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43858.577777777777</v>
-      </c>
-      <c r="B7">
-        <v>47.85</v>
-      </c>
-      <c r="C7">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43865.581250000003</v>
-      </c>
-      <c r="B8">
-        <v>53.05</v>
-      </c>
-      <c r="C8">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43872.57708333333</v>
-      </c>
-      <c r="B9">
-        <v>79.56</v>
-      </c>
-      <c r="C9">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43879.59375</v>
-      </c>
-      <c r="B10">
-        <v>163.02000000000001</v>
-      </c>
-      <c r="C10">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43886.573611111111</v>
-      </c>
-      <c r="B11">
-        <v>56.7</v>
-      </c>
-      <c r="C11">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43893.57916666667</v>
-      </c>
-      <c r="B12">
-        <v>33.44</v>
-      </c>
-      <c r="C12">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43900.531944444447</v>
-      </c>
-      <c r="B13">
-        <v>43.14</v>
-      </c>
-      <c r="C13">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43906.357638888891</v>
-      </c>
-      <c r="B14">
-        <v>31.38</v>
-      </c>
-      <c r="C14">
-        <v>2.7</v>
+        <v>25.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5520A0B-2863-440F-B808-95ED3523429B}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K31:K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43988.668055555558</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>37.58</v>
+      </c>
+      <c r="D2">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43988.672222222223</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>26.16</v>
+      </c>
+      <c r="D3">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43988.676388888889</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>25.96</v>
+      </c>
+      <c r="D4">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43988.679861111108</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>31.9</v>
+      </c>
+      <c r="D5">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43988.681250000001</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>56.9</v>
+      </c>
+      <c r="D6">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43988.681944444441</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>50.9</v>
+      </c>
+      <c r="D7">
+        <v>24.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBB4225-BD5C-4F92-B99E-70B600E4FC70}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1070,14 +1057,14 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,22 +1078,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
     </row>
   </sheetData>
@@ -1115,21 +1102,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,170 +1127,182 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43816.667361111111</v>
+        <v>43816.686111111114</v>
       </c>
       <c r="B2">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.530555555553</v>
+        <v>43830.506249999999</v>
       </c>
       <c r="B3">
-        <v>208</v>
+        <v>100.8</v>
       </c>
       <c r="C3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.416666666664</v>
+        <v>43836.398611111108</v>
       </c>
       <c r="B4">
-        <v>202.24</v>
+        <v>73.180000000000007</v>
       </c>
       <c r="C4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.568749999999</v>
+      </c>
+      <c r="B5">
+        <v>51.25</v>
+      </c>
+      <c r="C5">
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43844.586805555555</v>
-      </c>
-      <c r="B5">
-        <v>418.5</v>
-      </c>
-      <c r="C5">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.604166666664</v>
+        <v>43851.579861111109</v>
       </c>
       <c r="B6">
-        <v>267.5</v>
+        <v>50.05</v>
       </c>
       <c r="C6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.595138888886</v>
+        <v>43858.577777777777</v>
       </c>
       <c r="B7">
-        <v>349.55</v>
+        <v>47.85</v>
       </c>
       <c r="C7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.581250000003</v>
+      </c>
+      <c r="B8">
+        <v>53.05</v>
+      </c>
+      <c r="C8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.57708333333</v>
+      </c>
+      <c r="B9">
+        <v>79.56</v>
+      </c>
+      <c r="C9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.59375</v>
+      </c>
+      <c r="B10">
+        <v>163.02000000000001</v>
+      </c>
+      <c r="C10">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.573611111111</v>
+      </c>
+      <c r="B11">
+        <v>56.7</v>
+      </c>
+      <c r="C11">
         <v>2.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43865.592361111114</v>
-      </c>
-      <c r="B8">
-        <v>311.02999999999997</v>
-      </c>
-      <c r="C8">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43872.594444444447</v>
-      </c>
-      <c r="B9">
-        <v>649.36</v>
-      </c>
-      <c r="C9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43879.602777777778</v>
-      </c>
-      <c r="B10">
-        <v>871</v>
-      </c>
-      <c r="C10">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43886.590277777781</v>
-      </c>
-      <c r="B11">
-        <v>257.3</v>
-      </c>
-      <c r="C11">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.604166666664</v>
+        <v>43893.57916666667</v>
       </c>
       <c r="B12">
-        <v>174.4</v>
+        <v>33.44</v>
       </c>
       <c r="C12">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.548611111109</v>
+        <v>43900.531944444447</v>
       </c>
       <c r="B13">
-        <v>144.36000000000001</v>
+        <v>43.14</v>
       </c>
       <c r="C13">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.37777777778</v>
+        <v>43906.357638888891</v>
       </c>
       <c r="B14">
-        <v>156.5</v>
+        <v>31.38</v>
       </c>
       <c r="C14">
-        <v>3.7</v>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44026.480555555558</v>
+      </c>
+      <c r="B15">
+        <v>53.09</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,147 +1313,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43816.652777777781</v>
+        <v>43816.667361111111</v>
       </c>
       <c r="B2">
-        <v>55.5</v>
+        <v>182</v>
       </c>
       <c r="C2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.57708333333</v>
+        <v>43830.530555555553</v>
       </c>
       <c r="B3">
-        <v>73.58</v>
+        <v>208</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.431250000001</v>
+        <v>43836.416666666664</v>
       </c>
       <c r="B4">
-        <v>64.290000000000006</v>
+        <v>202.24</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.601388888892</v>
+        <v>43844.586805555555</v>
       </c>
       <c r="B5">
-        <v>61.52</v>
+        <v>418.5</v>
       </c>
       <c r="C5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.620833333334</v>
+        <v>43851.604166666664</v>
       </c>
       <c r="B6">
-        <v>81.53</v>
+        <v>267.5</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.609722222223</v>
+        <v>43858.595138888886</v>
       </c>
       <c r="B7">
-        <v>79.62</v>
+        <v>349.55</v>
       </c>
       <c r="C7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43865.60833333333</v>
+        <v>43865.592361111114</v>
       </c>
       <c r="B8">
-        <v>70.27</v>
+        <v>311.02999999999997</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43872.60833333333</v>
+        <v>43872.594444444447</v>
       </c>
       <c r="B9">
-        <v>115.26</v>
+        <v>649.36</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43879.617361111108</v>
+        <v>43879.602777777778</v>
       </c>
       <c r="B10">
-        <v>163.49</v>
+        <v>871</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43886.605555555558</v>
+        <v>43886.590277777781</v>
       </c>
       <c r="B11">
-        <v>48.34</v>
+        <v>257.3</v>
       </c>
       <c r="C11">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.617361111108</v>
+        <v>43893.604166666664</v>
       </c>
       <c r="B12">
-        <v>30.39</v>
+        <v>174.4</v>
       </c>
       <c r="C12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.5625</v>
+        <v>43900.548611111109</v>
       </c>
       <c r="B13">
-        <v>44.53</v>
+        <v>144.36000000000001</v>
       </c>
       <c r="C13">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.392361111109</v>
+        <v>43906.37777777778</v>
       </c>
       <c r="B14">
-        <v>37.090000000000003</v>
+        <v>156.5</v>
       </c>
       <c r="C14">
-        <v>2.8</v>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44026.497916666667</v>
+      </c>
+      <c r="B15">
+        <v>52.7</v>
+      </c>
+      <c r="C15">
+        <v>23.3</v>
       </c>
     </row>
   </sheetData>
@@ -1463,21 +1473,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1488,147 +1498,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.638888888891</v>
+        <v>43816.652777777781</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>55.5</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.6</v>
+        <v>43830.57708333333</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>73.58</v>
       </c>
       <c r="C3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.431250000001</v>
+      </c>
+      <c r="B4">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="C4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43836.447916666664</v>
-      </c>
-      <c r="B4">
-        <v>66.52</v>
-      </c>
-      <c r="C4">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.619444444441</v>
+        <v>43844.601388888892</v>
       </c>
       <c r="B5">
-        <v>64.569999999999993</v>
+        <v>61.52</v>
       </c>
       <c r="C5">
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.636805555558</v>
+        <v>43851.620833333334</v>
       </c>
       <c r="B6">
-        <v>52.54</v>
+        <v>81.53</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.625</v>
+        <v>43858.609722222223</v>
       </c>
       <c r="B7">
-        <v>87.88</v>
+        <v>79.62</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43865.629166666666</v>
+        <v>43865.60833333333</v>
       </c>
       <c r="B8">
-        <v>66.36</v>
+        <v>70.27</v>
       </c>
       <c r="C8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.60833333333</v>
+      </c>
+      <c r="B9">
+        <v>115.26</v>
+      </c>
+      <c r="C9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.617361111108</v>
+      </c>
+      <c r="B10">
+        <v>163.49</v>
+      </c>
+      <c r="C10">
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43872.62222222222</v>
-      </c>
-      <c r="B9">
-        <v>90.57</v>
-      </c>
-      <c r="C9">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43879.630555555559</v>
-      </c>
-      <c r="B10">
-        <v>79.42</v>
-      </c>
-      <c r="C10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43886.617361111108</v>
+        <v>43886.605555555558</v>
       </c>
       <c r="B11">
-        <v>55.45</v>
+        <v>48.34</v>
       </c>
       <c r="C11">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.631249999999</v>
+        <v>43893.617361111108</v>
       </c>
       <c r="B12">
-        <v>32.82</v>
+        <v>30.39</v>
       </c>
       <c r="C12">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.575694444444</v>
+        <v>43900.5625</v>
       </c>
       <c r="B13">
-        <v>32.6</v>
+        <v>44.53</v>
       </c>
       <c r="C13">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.408333333333</v>
+        <v>43906.392361111109</v>
       </c>
       <c r="B14">
-        <v>30.24</v>
+        <v>37.090000000000003</v>
       </c>
       <c r="C14">
-        <v>2.9</v>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44026.440972222219</v>
+      </c>
+      <c r="B15">
+        <v>50.74</v>
+      </c>
+      <c r="C15">
+        <v>26.4</v>
       </c>
     </row>
   </sheetData>
@@ -1637,21 +1658,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,147 +1683,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.631249999999</v>
+        <v>43818.638888888891</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.619444444441</v>
+        <v>43830.6</v>
       </c>
       <c r="B3">
-        <v>51.15</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.461805555555</v>
+        <v>43836.447916666664</v>
       </c>
       <c r="B4">
-        <v>57.25</v>
+        <v>66.52</v>
       </c>
       <c r="C4">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.629166666666</v>
+        <v>43844.619444444441</v>
       </c>
       <c r="B5">
-        <v>60.81</v>
+        <v>64.569999999999993</v>
       </c>
       <c r="C5">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.649305555555</v>
+        <v>43851.636805555558</v>
       </c>
       <c r="B6">
-        <v>57.51</v>
+        <v>52.54</v>
       </c>
       <c r="C6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43858.634722222225</v>
+        <v>43858.625</v>
       </c>
       <c r="B7">
-        <v>59.55</v>
+        <v>87.88</v>
       </c>
       <c r="C7">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43865.643055555556</v>
+        <v>43865.629166666666</v>
       </c>
       <c r="B8">
-        <v>72.349999999999994</v>
+        <v>66.36</v>
       </c>
       <c r="C8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.62222222222</v>
+      </c>
+      <c r="B9">
+        <v>90.57</v>
+      </c>
+      <c r="C9">
         <v>2.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43872.629861111112</v>
-      </c>
-      <c r="B9">
-        <v>104.59</v>
-      </c>
-      <c r="C9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.630555555559</v>
+      </c>
+      <c r="B10">
+        <v>79.42</v>
+      </c>
+      <c r="C10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.617361111108</v>
+      </c>
+      <c r="B11">
+        <v>55.45</v>
+      </c>
+      <c r="C11">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43879.640972222223</v>
-      </c>
-      <c r="B10">
-        <v>134.37</v>
-      </c>
-      <c r="C10">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43886.625694444447</v>
-      </c>
-      <c r="B11">
-        <v>77.709999999999994</v>
-      </c>
-      <c r="C11">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.640972222223</v>
+        <v>43893.631249999999</v>
       </c>
       <c r="B12">
-        <v>25.1</v>
+        <v>32.82</v>
       </c>
       <c r="C12">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.585416666669</v>
+        <v>43900.575694444444</v>
       </c>
       <c r="B13">
-        <v>40.15</v>
+        <v>32.6</v>
       </c>
       <c r="C13">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.418055555558</v>
+        <v>43906.408333333333</v>
       </c>
       <c r="B14">
-        <v>33.86</v>
+        <v>30.24</v>
       </c>
       <c r="C14">
-        <v>3.4</v>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44026.414583333331</v>
+      </c>
+      <c r="B15">
+        <v>31.26</v>
+      </c>
+      <c r="C15">
+        <v>25.8</v>
       </c>
     </row>
   </sheetData>
@@ -1811,21 +1843,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1836,147 +1868,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.62222222222</v>
+        <v>43818.631249999999</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43830.619444444441</v>
+      </c>
+      <c r="B3">
+        <v>51.15</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836.461805555555</v>
+      </c>
+      <c r="B4">
+        <v>57.25</v>
+      </c>
+      <c r="C4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43844.629166666666</v>
+      </c>
+      <c r="B5">
+        <v>60.81</v>
+      </c>
+      <c r="C5">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.649305555555</v>
+      </c>
+      <c r="B6">
+        <v>57.51</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.634722222225</v>
+      </c>
+      <c r="B7">
+        <v>59.55</v>
+      </c>
+      <c r="C7">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.643055555556</v>
+      </c>
+      <c r="B8">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="C8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.629861111112</v>
+      </c>
+      <c r="B9">
+        <v>104.59</v>
+      </c>
+      <c r="C9">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43830.627083333333</v>
-      </c>
-      <c r="B3">
-        <v>65.27</v>
-      </c>
-      <c r="C3">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43836.469444444447</v>
-      </c>
-      <c r="B4">
-        <v>48.01</v>
-      </c>
-      <c r="C4">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43844.638194444444</v>
-      </c>
-      <c r="B5">
-        <v>51.2</v>
-      </c>
-      <c r="C5">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43851.659722222219</v>
-      </c>
-      <c r="B6">
-        <v>50.08</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43858.643055555556</v>
-      </c>
-      <c r="B7">
-        <v>52.6</v>
-      </c>
-      <c r="C7">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43865.655555555553</v>
-      </c>
-      <c r="B8">
-        <v>99.98</v>
-      </c>
-      <c r="C8">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.640972222223</v>
+      </c>
+      <c r="B10">
+        <v>134.37</v>
+      </c>
+      <c r="C10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.625694444447</v>
+      </c>
+      <c r="B11">
+        <v>77.709999999999994</v>
+      </c>
+      <c r="C11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.640972222223</v>
+      </c>
+      <c r="B12">
+        <v>25.1</v>
+      </c>
+      <c r="C12">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.585416666669</v>
+      </c>
+      <c r="B13">
+        <v>40.15</v>
+      </c>
+      <c r="C13">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.418055555558</v>
+      </c>
+      <c r="B14">
+        <v>33.86</v>
+      </c>
+      <c r="C14">
         <v>3.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43872.634722222225</v>
-      </c>
-      <c r="B9">
-        <v>67.75</v>
-      </c>
-      <c r="C9">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43879.646527777775</v>
-      </c>
-      <c r="B10">
-        <v>137.44999999999999</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43886.631944444445</v>
-      </c>
-      <c r="B11">
-        <v>72.760000000000005</v>
-      </c>
-      <c r="C11">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43893.652777777781</v>
-      </c>
-      <c r="B12">
-        <v>23.83</v>
-      </c>
-      <c r="C12">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43900.592361111114</v>
-      </c>
-      <c r="B13">
-        <v>69.12</v>
-      </c>
-      <c r="C13">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43906.429166666669</v>
-      </c>
-      <c r="B14">
-        <v>30.4</v>
-      </c>
-      <c r="C14">
-        <v>4.0999999999999996</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44026.395833333336</v>
+      </c>
+      <c r="B15">
+        <v>26.32</v>
+      </c>
+      <c r="C15">
+        <v>22.6</v>
       </c>
     </row>
   </sheetData>
@@ -1985,21 +2028,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2010,147 +2053,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.609722222223</v>
+        <v>43818.62222222222</v>
       </c>
       <c r="B2">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.63958333333</v>
+        <v>43830.627083333333</v>
       </c>
       <c r="B3">
-        <v>147.80000000000001</v>
+        <v>65.27</v>
       </c>
       <c r="C3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.481944444444</v>
+        <v>43836.469444444447</v>
       </c>
       <c r="B4">
-        <v>190.13</v>
+        <v>48.01</v>
       </c>
       <c r="C4">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.651388888888</v>
+        <v>43844.638194444444</v>
       </c>
       <c r="B5">
-        <v>156.5</v>
+        <v>51.2</v>
       </c>
       <c r="C5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.659722222219</v>
+      </c>
+      <c r="B6">
+        <v>50.08</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.643055555556</v>
+      </c>
+      <c r="B7">
+        <v>52.6</v>
+      </c>
+      <c r="C7">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.655555555553</v>
+      </c>
+      <c r="B8">
+        <v>99.98</v>
+      </c>
+      <c r="C8">
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43851.675000000003</v>
-      </c>
-      <c r="B6">
-        <v>159.56</v>
-      </c>
-      <c r="C6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43858.654861111114</v>
-      </c>
-      <c r="B7">
-        <v>172.35</v>
-      </c>
-      <c r="C7">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43865.670138888891</v>
-      </c>
-      <c r="B8">
-        <v>288.22000000000003</v>
-      </c>
-      <c r="C8">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>43872.647916666669</v>
+        <v>43872.634722222225</v>
       </c>
       <c r="B9">
-        <v>336</v>
+        <v>67.75</v>
       </c>
       <c r="C9">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43879.660416666666</v>
+        <v>43879.646527777775</v>
       </c>
       <c r="B10">
-        <v>44.78</v>
+        <v>137.44999999999999</v>
       </c>
       <c r="C10">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>43886.644444444442</v>
+        <v>43886.631944444445</v>
       </c>
       <c r="B11">
-        <v>212.26</v>
+        <v>72.760000000000005</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.67291666667</v>
+        <v>43893.652777777781</v>
       </c>
       <c r="B12">
-        <v>71.739999999999995</v>
+        <v>23.83</v>
       </c>
       <c r="C12">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.605555555558</v>
+        <v>43900.592361111114</v>
       </c>
       <c r="B13">
-        <v>170.12</v>
+        <v>69.12</v>
       </c>
       <c r="C13">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.444444444445</v>
+        <v>43906.429166666669</v>
       </c>
       <c r="B14">
-        <v>229.6</v>
+        <v>30.4</v>
       </c>
       <c r="C14">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44026.385416666664</v>
+      </c>
+      <c r="B15">
+        <v>25.19</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2159,19 +2213,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2182,147 +2238,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43818.599305555559</v>
+        <v>43818.609722222223</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>143</v>
       </c>
       <c r="C2">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43830.648611111108</v>
+        <v>43830.63958333333</v>
       </c>
       <c r="B3">
-        <v>235.44</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="C3">
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43836.490277777775</v>
+        <v>43836.481944444444</v>
       </c>
       <c r="B4">
-        <v>344.16</v>
+        <v>190.13</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43844.659722222219</v>
+        <v>43844.651388888888</v>
       </c>
       <c r="B5">
-        <v>791.25</v>
+        <v>156.5</v>
       </c>
       <c r="C5">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43851.68472222222</v>
+        <v>43851.675000000003</v>
       </c>
       <c r="B6">
-        <v>600.03</v>
+        <v>159.56</v>
       </c>
       <c r="C6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.654861111114</v>
+      </c>
+      <c r="B7">
+        <v>172.35</v>
+      </c>
+      <c r="C7">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.670138888891</v>
+      </c>
+      <c r="B8">
+        <v>288.22000000000003</v>
+      </c>
+      <c r="C8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.647916666669</v>
+      </c>
+      <c r="B9">
+        <v>336</v>
+      </c>
+      <c r="C9">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.660416666666</v>
+      </c>
+      <c r="B10">
+        <v>44.78</v>
+      </c>
+      <c r="C10">
         <v>2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43858.661805555559</v>
-      </c>
-      <c r="B7">
-        <v>600.29999999999995</v>
-      </c>
-      <c r="C7">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43865.677777777775</v>
-      </c>
-      <c r="B8">
-        <v>969</v>
-      </c>
-      <c r="C8">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43872.654861111114</v>
-      </c>
-      <c r="B9">
-        <v>933.6</v>
-      </c>
-      <c r="C9">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43879.668749999997</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.644444444442</v>
+      </c>
+      <c r="B11">
+        <v>212.26</v>
+      </c>
+      <c r="C11">
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43886.650694444441</v>
-      </c>
-      <c r="B11">
-        <v>1081.8</v>
-      </c>
-      <c r="C11">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>43893.679166666669</v>
+        <v>43893.67291666667</v>
       </c>
       <c r="B12">
-        <v>1088.8</v>
+        <v>71.739999999999995</v>
       </c>
       <c r="C12">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43900.617361111108</v>
+        <v>43900.605555555558</v>
       </c>
       <c r="B13">
-        <v>617.66999999999996</v>
+        <v>170.12</v>
       </c>
       <c r="C13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43906.453472222223</v>
+        <v>43906.444444444445</v>
       </c>
       <c r="B14">
-        <v>723.65</v>
+        <v>229.6</v>
       </c>
       <c r="C14">
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44026.364583333336</v>
+      </c>
+      <c r="B15">
+        <v>58.57</v>
+      </c>
+      <c r="C15">
+        <v>22.1</v>
       </c>
     </row>
   </sheetData>
@@ -2331,120 +2398,186 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5520A0B-2863-440F-B808-95ED3523429B}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K31:K32"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43988.668055555558</v>
+        <v>43818.599305555559</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="C2">
-        <v>37.58</v>
-      </c>
-      <c r="D2">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>43988.672222222223</v>
+        <v>43830.648611111108</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>235.44</v>
       </c>
       <c r="C3">
-        <v>26.16</v>
-      </c>
-      <c r="D3">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43988.676388888889</v>
+        <v>43836.490277777775</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>344.16</v>
       </c>
       <c r="C4">
-        <v>25.96</v>
-      </c>
-      <c r="D4">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43988.679861111108</v>
+        <v>43844.659722222219</v>
       </c>
       <c r="B5">
+        <v>791.25</v>
+      </c>
+      <c r="C5">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43851.68472222222</v>
+      </c>
+      <c r="B6">
+        <v>600.03</v>
+      </c>
+      <c r="C6">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43858.661805555559</v>
+      </c>
+      <c r="B7">
+        <v>600.29999999999995</v>
+      </c>
+      <c r="C7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43865.677777777775</v>
+      </c>
+      <c r="B8">
+        <v>969</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43872.654861111114</v>
+      </c>
+      <c r="B9">
+        <v>933.6</v>
+      </c>
+      <c r="C9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43879.668749999997</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43886.650694444441</v>
+      </c>
+      <c r="B11">
+        <v>1081.8</v>
+      </c>
+      <c r="C11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43893.679166666669</v>
+      </c>
+      <c r="B12">
+        <v>1088.8</v>
+      </c>
+      <c r="C12">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43900.617361111108</v>
+      </c>
+      <c r="B13">
+        <v>617.66999999999996</v>
+      </c>
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>31.9</v>
-      </c>
-      <c r="D5">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43988.681250000001</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>56.9</v>
-      </c>
-      <c r="D6">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43988.681944444441</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>50.9</v>
-      </c>
-      <c r="D7">
-        <v>24.4</v>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43906.453472222223</v>
+      </c>
+      <c r="B14">
+        <v>723.65</v>
+      </c>
+      <c r="C14">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44026.350694444445</v>
+      </c>
+      <c r="B15">
+        <v>48.72</v>
+      </c>
+      <c r="C15">
+        <v>24.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/chloride_field.xlsx
+++ b/Data/chloride_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D25FDC5-FD69-491F-B6AD-6B7228AAC783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706C735D-F544-41D1-9B9A-D59E1A00651C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIC" sheetId="11" r:id="rId1"/>
@@ -890,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170511C4-9B95-4BE9-8C35-7117D40D32CB}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,6 +925,17 @@
         <v>25.7</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44040.444444444445</v>
+      </c>
+      <c r="B3">
+        <v>26.08</v>
+      </c>
+      <c r="C3">
+        <v>26.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -934,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5520A0B-2863-440F-B808-95ED3523429B}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K31:K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,6 +1292,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44040.458333333336</v>
+      </c>
+      <c r="B16">
+        <v>16.86</v>
+      </c>
+      <c r="C16">
+        <v>26.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1289,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1467,6 +1489,17 @@
         <v>23.3</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44040.489583333336</v>
+      </c>
+      <c r="B16">
+        <v>40.82</v>
+      </c>
+      <c r="C16">
+        <v>24.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1474,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1652,6 +1685,17 @@
         <v>26.4</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44040.352777777778</v>
+      </c>
+      <c r="B16">
+        <v>35.35</v>
+      </c>
+      <c r="C16">
+        <v>25.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1659,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1837,6 +1881,17 @@
         <v>25.8</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44040.37222222222</v>
+      </c>
+      <c r="B16">
+        <v>28.98</v>
+      </c>
+      <c r="C16">
+        <v>25.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1844,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2022,6 +2077,17 @@
         <v>22.6</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44040.383333333331</v>
+      </c>
+      <c r="B16">
+        <v>13.55</v>
+      </c>
+      <c r="C16">
+        <v>21.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2029,10 +2095,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2207,6 +2273,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44040.393055555556</v>
+      </c>
+      <c r="B16">
+        <v>13.55</v>
+      </c>
+      <c r="C16">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2214,10 +2291,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2392,6 +2469,17 @@
         <v>22.1</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44040.409722222219</v>
+      </c>
+      <c r="B16">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="C16">
+        <v>23.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2399,10 +2487,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2577,6 +2665,17 @@
         <v>24.1</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44040.422222222223</v>
+      </c>
+      <c r="B16">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="C16">
+        <v>25.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/chloride_field.xlsx
+++ b/Data/chloride_field.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706C735D-F544-41D1-9B9A-D59E1A00651C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E4E184-44C9-4FE0-A9DA-5167BAB4BD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170511C4-9B95-4BE9-8C35-7117D40D32CB}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,6 +936,17 @@
         <v>26.2</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44054.365972222222</v>
+      </c>
+      <c r="B4">
+        <v>46.46</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -946,7 +957,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,6 +1314,17 @@
         <v>26.2</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44054.487500000003</v>
+      </c>
+      <c r="B17">
+        <v>15.52</v>
+      </c>
+      <c r="C17">
+        <v>24.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1311,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1500,6 +1522,17 @@
         <v>24.8</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44054.505555555559</v>
+      </c>
+      <c r="B17">
+        <v>51.96</v>
+      </c>
+      <c r="C17">
+        <v>22.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1507,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1696,6 +1729,17 @@
         <v>25.1</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44054.390972222223</v>
+      </c>
+      <c r="B17">
+        <v>13.26</v>
+      </c>
+      <c r="C17">
+        <v>24.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1703,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1892,6 +1936,17 @@
         <v>25.4</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44054.408333333333</v>
+      </c>
+      <c r="B17">
+        <v>13.36</v>
+      </c>
+      <c r="C17">
+        <v>24.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1899,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2088,6 +2143,17 @@
         <v>21.6</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44054.422222222223</v>
+      </c>
+      <c r="B17">
+        <v>13.77</v>
+      </c>
+      <c r="C17">
+        <v>21.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2095,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2284,6 +2350,17 @@
         <v>18.600000000000001</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44054.429861111108</v>
+      </c>
+      <c r="B17">
+        <v>13.77</v>
+      </c>
+      <c r="C17">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2291,10 +2368,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2480,6 +2557,17 @@
         <v>23.6</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44054.461111111108</v>
+      </c>
+      <c r="B17">
+        <v>46.87</v>
+      </c>
+      <c r="C17">
+        <v>21.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2487,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2676,6 +2764,17 @@
         <v>25.5</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44054.45</v>
+      </c>
+      <c r="B17">
+        <v>223.08</v>
+      </c>
+      <c r="C17">
+        <v>22.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/chloride_field.xlsx
+++ b/Data/chloride_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E4E184-44C9-4FE0-A9DA-5167BAB4BD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96DDFBB-AD80-4389-851A-AD25205E6496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37800" yWindow="0" windowWidth="11100" windowHeight="15615" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIC" sheetId="11" r:id="rId1"/>
@@ -890,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170511C4-9B95-4BE9-8C35-7117D40D32CB}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,6 +947,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44069.387499999997</v>
+      </c>
+      <c r="B5">
+        <v>105.15</v>
+      </c>
+      <c r="C5">
+        <v>25.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -956,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5520A0B-2863-440F-B808-95ED3523429B}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1125,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1325,6 +1336,17 @@
         <v>24.5</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44069.559027777781</v>
+      </c>
+      <c r="B18">
+        <v>12.43</v>
+      </c>
+      <c r="C18">
+        <v>27.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1333,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1533,6 +1555,17 @@
         <v>22.6</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44069.591666666667</v>
+      </c>
+      <c r="B18">
+        <v>42.22</v>
+      </c>
+      <c r="C18">
+        <v>24.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1540,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1740,6 +1773,17 @@
         <v>24.3</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44069.406944444447</v>
+      </c>
+      <c r="B18">
+        <v>10.18</v>
+      </c>
+      <c r="C18">
+        <v>25.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1747,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1947,6 +1991,17 @@
         <v>24.6</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44069.425000000003</v>
+      </c>
+      <c r="B18">
+        <v>13.74</v>
+      </c>
+      <c r="C18">
+        <v>26.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1954,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2154,6 +2209,17 @@
         <v>21.2</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44069.443055555559</v>
+      </c>
+      <c r="B18">
+        <v>11.52</v>
+      </c>
+      <c r="C18">
+        <v>22.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2161,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2361,6 +2427,17 @@
         <v>17.899999999999999</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44069.454861111109</v>
+      </c>
+      <c r="B18">
+        <v>9.76</v>
+      </c>
+      <c r="C18">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2368,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2568,6 +2645,17 @@
         <v>21.9</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44069.479861111111</v>
+      </c>
+      <c r="B18">
+        <v>42.68</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2575,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2775,6 +2863,17 @@
         <v>22.9</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44069.496527777781</v>
+      </c>
+      <c r="B18">
+        <v>327.63</v>
+      </c>
+      <c r="C18">
+        <v>24.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/chloride_field.xlsx
+++ b/Data/chloride_field.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\CL_BUD\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96DDFBB-AD80-4389-851A-AD25205E6496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850D758E-FFB3-495B-8EA0-5CBAAE7BF137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37800" yWindow="0" windowWidth="11100" windowHeight="15615" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIC" sheetId="11" r:id="rId1"/>
@@ -890,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170511C4-9B95-4BE9-8C35-7117D40D32CB}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,6 +956,17 @@
       </c>
       <c r="C5">
         <v>25.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44082.375</v>
+      </c>
+      <c r="B6">
+        <v>46.65</v>
+      </c>
+      <c r="C6">
+        <v>17.3</v>
       </c>
     </row>
   </sheetData>
@@ -1136,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1347,6 +1358,17 @@
         <v>27.4</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44082.489583333336</v>
+      </c>
+      <c r="B19">
+        <v>469.9</v>
+      </c>
+      <c r="C19">
+        <v>17.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1355,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1566,6 +1588,17 @@
         <v>24.6</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44082.511805555558</v>
+      </c>
+      <c r="B19">
+        <v>132.59</v>
+      </c>
+      <c r="C19">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1573,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1784,6 +1817,17 @@
         <v>25.5</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44082.39166666667</v>
+      </c>
+      <c r="B19">
+        <v>43.71</v>
+      </c>
+      <c r="C19">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1791,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2002,6 +2046,17 @@
         <v>26.8</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44082.409722222219</v>
+      </c>
+      <c r="B19">
+        <v>35.83</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2009,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2220,6 +2275,17 @@
         <v>22.6</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44082.429166666669</v>
+      </c>
+      <c r="B19">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C19">
+        <v>14.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2227,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2438,6 +2504,17 @@
         <v>20.100000000000001</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44082.439583333333</v>
+      </c>
+      <c r="B19">
+        <v>15.66</v>
+      </c>
+      <c r="C19">
+        <v>12.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2445,10 +2522,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2656,6 +2733,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44082.45416666667</v>
+      </c>
+      <c r="B19">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2663,10 +2751,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2874,6 +2962,17 @@
         <v>24.7</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44082.463194444441</v>
+      </c>
+      <c r="B19">
+        <v>51.2</v>
+      </c>
+      <c r="C19">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/chloride_field.xlsx
+++ b/Data/chloride_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\CL_BUD\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850D758E-FFB3-495B-8EA0-5CBAAE7BF137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A03B6F-454D-42C6-B748-97D38031F8CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="990" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIC" sheetId="11" r:id="rId1"/>
@@ -892,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170511C4-9B95-4BE9-8C35-7117D40D32CB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -960,10 +960,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44082.375</v>
+        <v>44096.388888888891</v>
       </c>
       <c r="B6">
-        <v>46.65</v>
+        <v>37.35</v>
       </c>
       <c r="C6">
         <v>17.3</v>
@@ -1360,13 +1360,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44082.489583333336</v>
+        <v>44096.490972222222</v>
       </c>
       <c r="B19">
-        <v>469.9</v>
+        <v>12.06</v>
       </c>
       <c r="C19">
-        <v>17.8</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44082.511805555558</v>
+        <v>44096.511111111111</v>
       </c>
       <c r="B19">
-        <v>132.59</v>
+        <v>15.5</v>
       </c>
       <c r="C19">
-        <v>16.399999999999999</v>
+        <v>17.3</v>
       </c>
     </row>
   </sheetData>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44082.39166666667</v>
+        <v>44096.402777777781</v>
       </c>
       <c r="B19">
-        <v>43.71</v>
+        <v>10.82</v>
       </c>
       <c r="C19">
-        <v>18.600000000000001</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2048,13 +2048,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44082.409722222219</v>
+        <v>44096.418749999997</v>
       </c>
       <c r="B19">
-        <v>35.83</v>
+        <v>11.76</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2277,13 +2277,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44082.429166666669</v>
+        <v>44096.436111111114</v>
       </c>
       <c r="B19">
-        <v>19.399999999999999</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="C19">
-        <v>14.6</v>
+        <v>15.4</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2296,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2506,13 +2506,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44082.439583333333</v>
+        <v>44096.444444444445</v>
       </c>
       <c r="B19">
-        <v>15.66</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="C19">
-        <v>12.9</v>
+        <v>14.3</v>
       </c>
     </row>
   </sheetData>
@@ -2735,13 +2735,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44082.45416666667</v>
+        <v>44096.459722222222</v>
       </c>
       <c r="B19">
-        <v>81.099999999999994</v>
+        <v>39</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>16.7</v>
       </c>
     </row>
   </sheetData>
@@ -2753,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2964,13 +2964,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44082.463194444441</v>
+        <v>44096.468055555553</v>
       </c>
       <c r="B19">
-        <v>51.2</v>
+        <v>168.62</v>
       </c>
       <c r="C19">
-        <v>16.600000000000001</v>
+        <v>20.3</v>
       </c>
     </row>
   </sheetData>

--- a/Data/chloride_field.xlsx
+++ b/Data/chloride_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A03B6F-454D-42C6-B748-97D38031F8CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E24FBFE-9031-40B9-BE9E-0AE597F1B438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="990" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29670" yWindow="4830" windowWidth="13830" windowHeight="7170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIC" sheetId="11" r:id="rId1"/>
@@ -890,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170511C4-9B95-4BE9-8C35-7117D40D32CB}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,6 +967,17 @@
       </c>
       <c r="C6">
         <v>17.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44110.361111111109</v>
+      </c>
+      <c r="B7">
+        <v>77.38</v>
+      </c>
+      <c r="C7">
+        <v>12.6</v>
       </c>
     </row>
   </sheetData>
@@ -1147,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1369,6 +1380,17 @@
         <v>19.600000000000001</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44110.461805555555</v>
+      </c>
+      <c r="B20">
+        <v>13.69</v>
+      </c>
+      <c r="C20">
+        <v>16.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1377,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1599,6 +1621,17 @@
         <v>17.3</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44110.481249999997</v>
+      </c>
+      <c r="B20">
+        <v>70.87</v>
+      </c>
+      <c r="C20">
+        <v>12.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1606,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1828,6 +1861,17 @@
         <v>18.100000000000001</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44110.375</v>
+      </c>
+      <c r="B20">
+        <v>18.96</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1835,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2057,6 +2101,17 @@
         <v>18.100000000000001</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44110.392361111109</v>
+      </c>
+      <c r="B20">
+        <v>14.65</v>
+      </c>
+      <c r="C20">
+        <v>11.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2064,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2286,6 +2341,17 @@
         <v>15.4</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44110.406944444447</v>
+      </c>
+      <c r="B20">
+        <v>17.46</v>
+      </c>
+      <c r="C20">
+        <v>11.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2293,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2515,6 +2581,17 @@
         <v>14.3</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44110.415277777778</v>
+      </c>
+      <c r="B20">
+        <v>10.36</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2522,10 +2599,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2744,6 +2821,17 @@
         <v>16.7</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44110.430555555555</v>
+      </c>
+      <c r="B20">
+        <v>45.38</v>
+      </c>
+      <c r="C20">
+        <v>12.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2751,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2973,6 +3061,17 @@
         <v>20.3</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44110.438888888886</v>
+      </c>
+      <c r="B20">
+        <v>356.07</v>
+      </c>
+      <c r="C20">
+        <v>15.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/chloride_field.xlsx
+++ b/Data/chloride_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E24FBFE-9031-40B9-BE9E-0AE597F1B438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BCBCF2-4C8E-41C4-AF60-C2299B627112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29670" yWindow="4830" windowWidth="13830" windowHeight="7170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-900" yWindow="564" windowWidth="17280" windowHeight="8976" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIC" sheetId="11" r:id="rId1"/>
@@ -890,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170511C4-9B95-4BE9-8C35-7117D40D32CB}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,6 +978,17 @@
       </c>
       <c r="C7">
         <v>12.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44134.444444444445</v>
+      </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -1158,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1391,6 +1402,17 @@
         <v>16.2</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44134.479166666664</v>
+      </c>
+      <c r="B21">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>8.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1399,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1632,6 +1654,17 @@
         <v>12.6</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44134.525694444441</v>
+      </c>
+      <c r="B21">
+        <v>108</v>
+      </c>
+      <c r="C21">
+        <v>6.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1639,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1872,6 +1905,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44134.325694444444</v>
+      </c>
+      <c r="B21">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="C21">
+        <v>7.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1879,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2112,6 +2156,17 @@
         <v>11.8</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44134.345138888886</v>
+      </c>
+      <c r="B21">
+        <v>27.74</v>
+      </c>
+      <c r="C21">
+        <v>3.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2119,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2352,6 +2407,17 @@
         <v>11.1</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44134.35833333333</v>
+      </c>
+      <c r="B21">
+        <v>51.45</v>
+      </c>
+      <c r="C21">
+        <v>4.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2359,10 +2425,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2592,6 +2658,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44134.368055555555</v>
+      </c>
+      <c r="B21">
+        <v>51.6</v>
+      </c>
+      <c r="C21">
+        <v>4.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2599,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2832,6 +2909,17 @@
         <v>12.3</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44134.384027777778</v>
+      </c>
+      <c r="B21">
+        <v>134</v>
+      </c>
+      <c r="C21">
+        <v>5.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2839,10 +2927,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3072,6 +3160,17 @@
         <v>15.8</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44134.397222222222</v>
+      </c>
+      <c r="B21">
+        <v>288.2</v>
+      </c>
+      <c r="C21">
+        <v>5.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/chloride_field.xlsx
+++ b/Data/chloride_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linne\Box Sync\Chloride Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BCBCF2-4C8E-41C4-AF60-C2299B627112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7204B3-E1A4-45F3-8B88-89AFB4A8F8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-900" yWindow="564" windowWidth="17280" windowHeight="8976" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31635" yWindow="2970" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIC" sheetId="11" r:id="rId1"/>
@@ -54,7 +54,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +185,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -531,10 +537,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -890,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170511C4-9B95-4BE9-8C35-7117D40D32CB}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,10 +967,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44096.388888888891</v>
+        <v>44082.375</v>
       </c>
       <c r="B6">
-        <v>37.35</v>
+        <v>56.65</v>
       </c>
       <c r="C6">
         <v>17.3</v>
@@ -971,23 +978,34 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44110.361111111109</v>
+        <v>44096.388888888891</v>
       </c>
       <c r="B7">
-        <v>77.38</v>
+        <v>37.35</v>
       </c>
       <c r="C7">
-        <v>12.6</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <v>44110.361111111109</v>
+      </c>
+      <c r="B8">
+        <v>77.38</v>
+      </c>
+      <c r="C8">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>44134.444444444445</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>90</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>4.5</v>
       </c>
     </row>
@@ -1169,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1382,34 +1400,45 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44096.490972222222</v>
+        <v>44082.489583333336</v>
       </c>
       <c r="B19">
-        <v>12.06</v>
+        <v>58.99</v>
       </c>
       <c r="C19">
-        <v>19.600000000000001</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44110.461805555555</v>
+        <v>44096.490972222222</v>
       </c>
       <c r="B20">
-        <v>13.69</v>
+        <v>12.06</v>
       </c>
       <c r="C20">
-        <v>16.2</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>44110.461805555555</v>
+      </c>
+      <c r="B21">
+        <v>13.69</v>
+      </c>
+      <c r="C21">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>44134.479166666664</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>37</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>8.4</v>
       </c>
     </row>
@@ -1421,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1634,34 +1663,45 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44096.511111111111</v>
+        <v>44082.511805555558</v>
       </c>
       <c r="B19">
-        <v>15.5</v>
+        <v>132.59</v>
       </c>
       <c r="C19">
-        <v>17.3</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44110.481249999997</v>
+        <v>44096.511111111111</v>
       </c>
       <c r="B20">
-        <v>70.87</v>
+        <v>15.5</v>
       </c>
       <c r="C20">
-        <v>12.6</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>44110.481249999997</v>
+      </c>
+      <c r="B21">
+        <v>70.87</v>
+      </c>
+      <c r="C21">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>44134.525694444441</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>6.5</v>
       </c>
     </row>
@@ -1672,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1885,34 +1925,45 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44096.402777777781</v>
+        <v>44082.39166666667</v>
       </c>
       <c r="B19">
-        <v>10.82</v>
+        <v>43.71</v>
       </c>
       <c r="C19">
-        <v>18.100000000000001</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44110.375</v>
+        <v>44096.402777777781</v>
       </c>
       <c r="B20">
-        <v>18.96</v>
+        <v>10.82</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>44110.375</v>
+      </c>
+      <c r="B21">
+        <v>18.96</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>44134.325694444444</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>38.450000000000003</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>7.6</v>
       </c>
     </row>
@@ -1923,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2136,34 +2187,45 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44096.418749999997</v>
+        <v>44082.409722222219</v>
       </c>
       <c r="B19">
-        <v>11.76</v>
+        <v>35.83</v>
       </c>
       <c r="C19">
-        <v>18.100000000000001</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44110.392361111109</v>
+        <v>44096.418749999997</v>
       </c>
       <c r="B20">
-        <v>14.65</v>
+        <v>11.76</v>
       </c>
       <c r="C20">
-        <v>11.8</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>44110.392361111109</v>
+      </c>
+      <c r="B21">
+        <v>14.65</v>
+      </c>
+      <c r="C21">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>44134.345138888886</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>27.74</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>3.4</v>
       </c>
     </row>
@@ -2174,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2387,34 +2449,45 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44096.436111111114</v>
+        <v>44082.429166666669</v>
       </c>
       <c r="B19">
-        <v>10.039999999999999</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C19">
-        <v>15.4</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44110.406944444447</v>
+        <v>44096.436111111114</v>
       </c>
       <c r="B20">
-        <v>17.46</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="C20">
-        <v>11.1</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>44110.406944444447</v>
+      </c>
+      <c r="B21">
+        <v>17.46</v>
+      </c>
+      <c r="C21">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>44134.35833333333</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>51.45</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>4.2</v>
       </c>
     </row>
@@ -2425,10 +2498,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2638,34 +2711,45 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44096.444444444445</v>
+        <v>44082.439583333333</v>
       </c>
       <c r="B19">
-        <v>8.8800000000000008</v>
+        <v>15.66</v>
       </c>
       <c r="C19">
-        <v>14.3</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44110.415277777778</v>
+        <v>44096.444444444445</v>
       </c>
       <c r="B20">
-        <v>10.36</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>44110.415277777778</v>
+      </c>
+      <c r="B21">
+        <v>10.36</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>44134.368055555555</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>51.6</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>4.8</v>
       </c>
     </row>
@@ -2676,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2889,34 +2973,45 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44096.459722222222</v>
+        <v>44082.45416666667</v>
       </c>
       <c r="B19">
-        <v>39</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="C19">
-        <v>16.7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44110.430555555555</v>
+        <v>44096.459722222222</v>
       </c>
       <c r="B20">
-        <v>45.38</v>
+        <v>39</v>
       </c>
       <c r="C20">
-        <v>12.3</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>44110.430555555555</v>
+      </c>
+      <c r="B21">
+        <v>45.38</v>
+      </c>
+      <c r="C21">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>44134.384027777778</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>134</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>5.2</v>
       </c>
     </row>
@@ -2927,10 +3022,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3139,35 +3234,46 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>44096.468055555553</v>
+      <c r="A19" s="3">
+        <v>44082.463194444441</v>
       </c>
       <c r="B19">
-        <v>168.62</v>
+        <v>51.2</v>
       </c>
       <c r="C19">
-        <v>20.3</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44110.438888888886</v>
+        <v>44096.468055555553</v>
       </c>
       <c r="B20">
-        <v>356.07</v>
+        <v>168.62</v>
       </c>
       <c r="C20">
-        <v>15.8</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>44110.438888888886</v>
+      </c>
+      <c r="B21">
+        <v>356.07</v>
+      </c>
+      <c r="C21">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>44134.397222222222</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>288.2</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>5.4</v>
       </c>
     </row>
